--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2197548.623196587</v>
+        <v>2301728.257647659</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292606</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>265.7900564756467</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>224.21312670272</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247554</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734071385</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>87.88581754082405</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>43.84427527788537</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>152.8981130947578</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>192.0524966157165</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>79.90830534549441</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>58.39521734428655</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>326.4523041199386</v>
+        <v>313.4495631349293</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1297,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>60.7424763599609</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>39.27512482038099</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819343</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>137.5213979579545</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>64.40601307691715</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1774,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>31.26260713376619</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>156.523885790703</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1895,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>159.7642955692154</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>86.60069024005159</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>60.46574022124362</v>
       </c>
       <c r="S22" t="n">
-        <v>147.641030821012</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>53.30076123485239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>215.4001370164143</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.522998336588</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634825</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>55.52079624060475</v>
+        <v>164.5981994227938</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>115.4764219077151</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>86.8894339777016</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>120.7871326503972</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>47.84205650382022</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>102.1557845699818</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927148</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.7846764101</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.7846764101</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.7846764101</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="X2" t="n">
-        <v>2735.306770649777</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064755</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>827.0643955080139</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
         <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486466</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962569</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>718.3439163053874</v>
+        <v>2074.779800743213</v>
       </c>
       <c r="C4" t="n">
-        <v>718.3439163053874</v>
+        <v>1905.843617815307</v>
       </c>
       <c r="D4" t="n">
-        <v>568.2272768930517</v>
+        <v>1905.843617815307</v>
       </c>
       <c r="E4" t="n">
-        <v>420.3141833106586</v>
+        <v>1757.930524232913</v>
       </c>
       <c r="F4" t="n">
-        <v>420.3141833106586</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="G4" t="n">
-        <v>252.6113466853775</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279951</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>3281.318674863831</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>3089.632790690657</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>3089.632790690657</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214135</v>
+        <v>2800.529923816301</v>
       </c>
       <c r="V4" t="n">
-        <v>1638.191681214135</v>
+        <v>2545.845435610414</v>
       </c>
       <c r="W4" t="n">
-        <v>1348.774511177175</v>
+        <v>2256.428265573453</v>
       </c>
       <c r="X4" t="n">
-        <v>1120.784960279157</v>
+        <v>2256.428265573453</v>
       </c>
       <c r="Y4" t="n">
-        <v>899.9923811356272</v>
+        <v>2256.428265573453</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1514.348043559526</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1514.348043559526</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1514.348043559526</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1128.559790961282</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>717.5738861716743</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>302.5014360166708</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535338</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559526</v>
+        <v>2141.344278546768</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>856.503009960934</v>
+        <v>663.8430895008156</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>663.8430895008156</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4720,19 +4722,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>1258.944053934704</v>
+        <v>845.4915543310553</v>
       </c>
       <c r="X7" t="n">
-        <v>1258.944053934704</v>
+        <v>845.4915543310553</v>
       </c>
       <c r="Y7" t="n">
-        <v>1038.151474791174</v>
+        <v>845.4915543310553</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1561.900772669911</v>
+        <v>1548.766690866871</v>
       </c>
       <c r="C8" t="n">
-        <v>1561.900772669911</v>
+        <v>1548.766690866871</v>
       </c>
       <c r="D8" t="n">
         <v>1232.150970528558</v>
@@ -4799,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645722</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669911</v>
+        <v>1935.366530930993</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4874,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>985.2668805437596</v>
+        <v>678.6720730524787</v>
       </c>
       <c r="C10" t="n">
-        <v>816.3306976158527</v>
+        <v>509.7358901245718</v>
       </c>
       <c r="D10" t="n">
-        <v>666.214058203517</v>
+        <v>359.6192507122361</v>
       </c>
       <c r="E10" t="n">
-        <v>518.3009646211239</v>
+        <v>359.6192507122361</v>
       </c>
       <c r="F10" t="n">
-        <v>371.4110171232135</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1887.622704835583</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1598.519837961227</v>
       </c>
       <c r="V10" t="n">
-        <v>1615.697475415547</v>
+        <v>1598.519837961227</v>
       </c>
       <c r="W10" t="n">
-        <v>1615.697475415547</v>
+        <v>1309.102667924266</v>
       </c>
       <c r="X10" t="n">
-        <v>1387.707924517529</v>
+        <v>1081.113117026249</v>
       </c>
       <c r="Y10" t="n">
-        <v>1166.915345373999</v>
+        <v>860.3205378827184</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5038,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5063,7 +5065,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,22 +5126,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>604.4387941280861</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>456.525700545693</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>456.525700545693</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5233,16 +5235,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952173</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808643</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5273,13 +5275,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5309,7 +5311,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5361,22 +5363,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921476</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898186995</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
@@ -5461,25 +5463,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2415.384692536053</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>2126.309465880251</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5534,19 +5536,19 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.10905366816</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5710,13 +5712,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.7575184984</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y19" t="n">
-        <v>1272.7575184984</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>614.6217844681063</v>
+        <v>2945.341332862261</v>
       </c>
       <c r="C22" t="n">
-        <v>614.6217844681063</v>
+        <v>2776.405149934354</v>
       </c>
       <c r="D22" t="n">
-        <v>464.5051450557705</v>
+        <v>2626.288510522018</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>2626.288510522018</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>2479.398563024108</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>2479.398563024108</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.92275029663</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822169</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998109</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729144</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389152</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098137</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671696</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>4629.756647124612</v>
       </c>
       <c r="S22" t="n">
-        <v>2297.830729215602</v>
+        <v>4446.901812779516</v>
       </c>
       <c r="T22" t="n">
-        <v>2078.229264238543</v>
+        <v>4227.300347802458</v>
       </c>
       <c r="U22" t="n">
-        <v>1789.154037582741</v>
+        <v>3938.225121146656</v>
       </c>
       <c r="V22" t="n">
-        <v>1534.469549376854</v>
+        <v>3683.540632940769</v>
       </c>
       <c r="W22" t="n">
-        <v>1245.052379339893</v>
+        <v>3394.123462903808</v>
       </c>
       <c r="X22" t="n">
-        <v>1017.062828441876</v>
+        <v>3166.133912005791</v>
       </c>
       <c r="Y22" t="n">
-        <v>796.270249298346</v>
+        <v>2945.341332862261</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6005,34 +6007,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6154,7 +6156,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6163,13 +6165,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487568</v>
@@ -6178,19 +6180,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
@@ -6269,7 +6271,7 @@
         <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6302,28 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>642.8692823226941</v>
+        <v>2941.397703389532</v>
       </c>
       <c r="C28" t="n">
-        <v>473.9330993947872</v>
+        <v>2941.397703389532</v>
       </c>
       <c r="D28" t="n">
-        <v>323.8164599824514</v>
+        <v>2941.397703389532</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000583</v>
+        <v>2793.484609807138</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>2646.594662309228</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>2479.398563024108</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.92275029663</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822169</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998109</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729144</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389152</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279807</v>
+        <v>4278.959462098137</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853365</v>
+        <v>4571.634917671696</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580265</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832667</v>
+        <v>4623.787448650997</v>
       </c>
       <c r="S28" t="n">
-        <v>2326.07822707019</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="T28" t="n">
-        <v>2106.476762093131</v>
+        <v>4223.356718329725</v>
       </c>
       <c r="U28" t="n">
-        <v>1817.401535437329</v>
+        <v>3934.281491673923</v>
       </c>
       <c r="V28" t="n">
-        <v>1562.717047231442</v>
+        <v>3679.597003468036</v>
       </c>
       <c r="W28" t="n">
-        <v>1273.299877194481</v>
+        <v>3390.179833431079</v>
       </c>
       <c r="X28" t="n">
-        <v>1045.310326296464</v>
+        <v>3162.190282533062</v>
       </c>
       <c r="Y28" t="n">
-        <v>824.5177471529338</v>
+        <v>2941.397703389532</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615669</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334542</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.78353867329</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667835</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.01152569472</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740628</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385794</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590561</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118216</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>2716.927329289437</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>3212.252935505196</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>3212.252935505196</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>4420.9318370706</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445483</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301209</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022983</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566168</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334425</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606223</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400691</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635737</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>3046.798896214209</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048583</v>
+        <v>2877.862713286303</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925226</v>
+        <v>2727.746073873967</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101294</v>
+        <v>2727.746073873967</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122191</v>
+        <v>2727.746073873967</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>2561.485266376195</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218393</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866307</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296631</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>2679.61201282217</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.01060699811</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729145</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389153</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098138</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671697</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650998</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>4221.331149328844</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>4221.331149328844</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>3966.646661122957</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>3677.229491085996</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>3449.239940187979</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>3228.447361044449</v>
       </c>
     </row>
     <row r="32">
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>2418.621364762389</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L33" t="n">
-        <v>2913.946970978148</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3511.3254586047</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>4138.923422159307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>4690.833152398594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>696.708435085168</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597624</v>
+        <v>377.6556127449254</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597624</v>
+        <v>377.6556127449254</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597624</v>
+        <v>377.6556127449254</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>210.4595134598054</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6865,7 +6867,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,34 +6876,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>878.3568999154078</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>3118.73869457197</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>2949.802511644064</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>2799.685872231728</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597624</v>
+        <v>2651.772778649335</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597624</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>3300.38715940221</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>3300.38715940221</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,19 +7259,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921476</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898186995</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400717</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D40" t="n">
-        <v>363.7369613277359</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>215.8238677453428</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2443.925817935984</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,19 +7408,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7427,7 +7429,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>315.9123021921476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>365.9405071576786</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>365.9405071576786</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7637,34 +7639,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7734,19 +7736,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>197.0043242297717</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>197.0043242297717</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.922018100231071e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.79556933158176e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9653,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-7.50022678360063e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -11315,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>-5.794924217776389e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>28.00274033431435</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>161.30364231212</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>186.1428431935221</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>129.6605885985411</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>7.48252552941247</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>199.9223080965394</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>5.909506488878023</v>
       </c>
       <c r="S22" t="n">
-        <v>33.38525518063261</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>127.7255247667922</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2.005313310873959</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>110.0033420516641</v>
+        <v>0.9259388694750044</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>24.81829093850872</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>138.8202214113356</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.63391537253403</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>63.36835372228757</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>117.6820817884486</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>63.36835372228705</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>833850.5931295423</v>
+        <v>833850.5931295422</v>
       </c>
     </row>
     <row r="3">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>819955.4229552648</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>819955.4229552648</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
         <v>615781.327398212</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675046</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>8.41514078729233e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6.013392521708738e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.8428831942</v>
+        <v>92793.84288319416</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319397</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184266</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26485,16 +26487,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-913691.2017739662</v>
+        <v>-913691.2017739671</v>
       </c>
       <c r="C6" t="n">
-        <v>415053.5439536242</v>
+        <v>415053.5439536249</v>
       </c>
       <c r="D6" t="n">
-        <v>415053.5439536247</v>
+        <v>415053.5439536241</v>
       </c>
       <c r="E6" t="n">
-        <v>165218.1500243993</v>
+        <v>165218.1500243996</v>
       </c>
       <c r="F6" t="n">
         <v>490630.6118317546</v>
       </c>
       <c r="G6" t="n">
+        <v>490630.6118317547</v>
+      </c>
+      <c r="H6" t="n">
         <v>490630.6118317542</v>
       </c>
-      <c r="H6" t="n">
-        <v>490630.6118317543</v>
-      </c>
       <c r="I6" t="n">
-        <v>490630.6118317546</v>
+        <v>490630.6118317548</v>
       </c>
       <c r="J6" t="n">
         <v>273099.4094344773</v>
       </c>
       <c r="K6" t="n">
-        <v>490630.6118317544</v>
+        <v>490630.6118317549</v>
       </c>
       <c r="L6" t="n">
-        <v>490630.6118317544</v>
+        <v>490630.6118317546</v>
       </c>
       <c r="M6" t="n">
-        <v>405575.5838962427</v>
+        <v>405575.5838962429</v>
       </c>
       <c r="N6" t="n">
+        <v>490630.6118317547</v>
+      </c>
+      <c r="O6" t="n">
         <v>490630.6118317545</v>
-      </c>
-      <c r="O6" t="n">
-        <v>490630.6118317544</v>
       </c>
       <c r="P6" t="n">
         <v>490630.6118317546</v>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26805,19 +26807,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>6.821210263296962e-13</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>6.821210263296962e-13</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>61.96220199448817</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>145.5179739757491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>56.86919737349673</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004739</v>
+        <v>45.08787739216201</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>229.8357285687227</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>102.555267771604</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>87.33851575313342</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>90.22025567392581</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>28.2307375007444</v>
+        <v>41.23347848575361</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>105.2833318990673</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>180.2738244557882</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28138,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-5.226490029168309e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28245,7 +28247,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28615,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.63709516081679e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29047,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-8.06866097220871e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29290,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29341,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29469,7 +29471,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29493,7 +29495,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974798</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003807</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095019</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781687</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,10 +31123,10 @@
         <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
@@ -31133,34 +31135,34 @@
         <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970247</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.9375967297389</v>
@@ -31212,31 +31214,31 @@
         <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098818</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31844,25 +31846,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32014,7 +32016,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
         <v>593.8732233669224</v>
@@ -32081,7 +32083,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32093,13 +32095,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32318,25 +32320,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>558.3177848342784</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,31 +32554,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32740,7 +32742,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,37 +32785,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>320.914706470995</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32880,7 +32882,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,37 +33022,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>320.914706470995</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067208</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,37 +33259,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647493</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359076</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663262</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,37 +33496,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.605272155109</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709955</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,25 +33745,25 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860818</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270667</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,34 +33979,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>211.7351844430268</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>211.0222436375116</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
         <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013289</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127269</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306614</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.757372170198</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35662,7 +35664,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
@@ -35729,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>73.1808046631526</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35743,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>426.9760727509451</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648388</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876618</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36525,7 +36527,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876618</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,10 +36764,10 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060496</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>477.985332142731</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525743</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075003</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876622</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37238,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640635</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>73.1808046631526</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>73.1808046631526</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2301728.257647659</v>
+        <v>2297715.647633665</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>324.2757366615662</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>265.7900564756467</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247554</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>131.3542190999261</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>43.84427527788537</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>152.8981130947578</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>150.960137184063</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>58.39521734428655</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347177</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>313.4495631349293</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>271.2930916328065</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>39.27512482038099</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>137.5213979579545</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>156.523885790703</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>86.60069024005159</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>60.46574022124362</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977265</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>215.4001370164143</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336588</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5981994227938</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>33.66638448559959</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>115.4764219077151</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>172.1249649038638</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>86.8894339777016</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>3.006892987834117</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577711</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>18.70843787977262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4324,16 +4324,16 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2693.309871889246</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2693.309871889246</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X2" t="n">
-        <v>2693.309871889246</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y2" t="n">
-        <v>2303.170539913434</v>
+        <v>2630.721789066531</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080139</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2074.779800743213</v>
+        <v>980.7518458718754</v>
       </c>
       <c r="C4" t="n">
-        <v>1905.843617815307</v>
+        <v>811.8156629439685</v>
       </c>
       <c r="D4" t="n">
-        <v>1905.843617815307</v>
+        <v>661.6990235316327</v>
       </c>
       <c r="E4" t="n">
-        <v>1757.930524232913</v>
+        <v>513.7859299492396</v>
       </c>
       <c r="F4" t="n">
-        <v>1611.040576735003</v>
+        <v>366.8959824513292</v>
       </c>
       <c r="G4" t="n">
-        <v>1611.040576735003</v>
+        <v>199.1931458260482</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3281.318674863831</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3089.632790690657</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>3089.632790690657</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>2800.529923816301</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>2545.845435610414</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>2256.428265573453</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>2256.428265573453</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="Y4" t="n">
-        <v>2256.428265573453</v>
+        <v>1162.400310702115</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.344278546768</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>663.8430895008156</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>663.8430895008156</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310553</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4915543310553</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>845.4915543310553</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1548.766690866871</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.766690866871</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>400.5199879482413</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176919</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906804</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906804</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>1935.366530930993</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
         <v>1212.42807043813</v>
@@ -4904,31 +4904,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>678.6720730524787</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>509.7358901245718</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>359.6192507122361</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>359.6192507122361</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1887.622704835583</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1598.519837961227</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1598.519837961227</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1309.102667924266</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1081.113117026249</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>860.3205378827184</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5059,34 +5059,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4916164683287</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>754.5554335404219</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>604.4387941280861</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>456.525700545693</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F13" t="n">
-        <v>456.525700545693</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2106.003314093041</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.318825887154</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1413.271624709496</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>964.4894946679489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5761,43 +5761,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2945.341332862261</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>2776.405149934354</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2626.288510522018</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2626.288510522018</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2479.398563024108</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024108</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4629.756647124612</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>4446.901812779516</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>4227.300347802458</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>3938.225121146656</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3683.540632940769</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3394.123462903808</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3166.133912005791</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>2945.341332862261</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6141,55 +6141,55 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
         <v>753.3092412490405</v>
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2941.397703389532</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2941.397703389532</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2941.397703389532</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>2793.484609807138</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309228</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024108</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866306</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305902</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4223.356718329725</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3934.281491673923</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3679.597003468036</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3390.179833431079</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3162.190282533062</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>2941.397703389532</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192611</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615669</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334542</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667835</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.01152569472</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740628</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385794</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590561</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2383.002557118216</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2716.927329289437</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>3212.252935505196</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3212.252935505196</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.9318370706</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445483</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398596</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301209</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022983</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566168</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334425</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606223</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400691</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635737</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3046.798896214209</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>2877.862713286303</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>2727.746073873967</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>2727.746073873967</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2727.746073873967</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376195</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218393</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729145</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671697</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398596</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650998</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305902</v>
+        <v>2345.91093085731</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328844</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.331149328844</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122957</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.229491085996</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.239940187979</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y31" t="n">
-        <v>3228.447361044449</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6791,16 +6791,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.708435085168</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572612</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>377.6556127449254</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>377.6556127449254</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>377.6556127449254</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>210.4595134598054</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993916</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058938</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154078</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3118.73869457197</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2949.802511644064</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2799.685872231728</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2651.772778649335</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3300.38715940221</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3300.38715940221</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>408.925855915485</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
         <v>261.0127623330919</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2443.925817935984</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2261.070983590888</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7429,7 +7429,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.922018100231071e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>28.00274033431435</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>129.6605885985411</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>199.9223080965394</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.909506488878023</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>2.005313310873959</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9259388694750044</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>147.359901516045</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>24.81829093850872</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>138.8202214113356</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.36835372228757</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675046</v>
-      </c>
       <c r="H2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>6.013392521708738e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319416</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319397</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
+        <v>13606.8081118428</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="G4" t="n">
-        <v>13606.80811184269</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184269</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184269</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184266</v>
-      </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26487,16 +26487,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-913691.2017739671</v>
+        <v>-913691.2017739676</v>
       </c>
       <c r="C6" t="n">
-        <v>415053.5439536249</v>
+        <v>415053.5439536247</v>
       </c>
       <c r="D6" t="n">
-        <v>415053.5439536241</v>
+        <v>415053.5439536252</v>
       </c>
       <c r="E6" t="n">
-        <v>165218.1500243996</v>
+        <v>164870.7707700425</v>
       </c>
       <c r="F6" t="n">
-        <v>490630.6118317546</v>
+        <v>490283.2325773974</v>
       </c>
       <c r="G6" t="n">
-        <v>490630.6118317547</v>
+        <v>490283.2325773976</v>
       </c>
       <c r="H6" t="n">
-        <v>490630.6118317542</v>
+        <v>490283.2325773973</v>
       </c>
       <c r="I6" t="n">
-        <v>490630.6118317548</v>
+        <v>490283.2325773973</v>
       </c>
       <c r="J6" t="n">
-        <v>273099.4094344773</v>
+        <v>272752.0301801199</v>
       </c>
       <c r="K6" t="n">
-        <v>490630.6118317549</v>
+        <v>490283.2325773975</v>
       </c>
       <c r="L6" t="n">
-        <v>490630.6118317546</v>
+        <v>490283.2325773977</v>
       </c>
       <c r="M6" t="n">
-        <v>405575.5838962429</v>
+        <v>405228.2046418856</v>
       </c>
       <c r="N6" t="n">
-        <v>490630.6118317547</v>
+        <v>490283.2325773975</v>
       </c>
       <c r="O6" t="n">
-        <v>490630.6118317545</v>
+        <v>490283.2325773973</v>
       </c>
       <c r="P6" t="n">
-        <v>490630.6118317546</v>
+        <v>490283.2325773975</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26965,7 +26965,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>58.45810500191442</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>61.96220199448817</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>13.40079581439466</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>45.08787739216201</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>229.8357285687227</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>235.2778014719906</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>90.22025567392581</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911034</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>41.23347848575361</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>110.6372784394553</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>180.2738244557882</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28614,10 +28614,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>-8.63709516081679e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-8.06866097220871e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29495,7 +29495,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>558.3177848342784</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>320.914706470995</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>320.914706470995</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359076</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>320.9147064709955</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860818</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819351</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>426.9760727509451</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>189.5729943876618</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>189.5729943876618</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525743</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>189.5729943876622</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640635</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2297715.647633665</v>
+        <v>2299476.17793645</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>324.2757366615662</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>121.3416305177528</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>131.3542190999261</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>27.00971856836508</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>184.5747610569524</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>150.960137184063</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>197.4995743803882</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347177</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>271.2930916328065</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>256.4217010493351</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>102.1557845699813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>199.6886312571994</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>35.41770597126713</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588585</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569541</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.70843787977265</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>33.66638448559959</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>109.0909680372385</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>172.1249649038638</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T43" t="n">
-        <v>206.5509998577711</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D2" t="n">
         <v>1575.942324366272</v>
@@ -4324,58 +4324,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066531</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.721789066531</v>
+        <v>1698.509627919557</v>
       </c>
       <c r="Y2" t="n">
-        <v>2630.721789066531</v>
+        <v>1575.942324366272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>980.7518458718754</v>
+        <v>2419.881820789279</v>
       </c>
       <c r="C4" t="n">
-        <v>811.8156629439685</v>
+        <v>2250.945637861372</v>
       </c>
       <c r="D4" t="n">
-        <v>661.6990235316327</v>
+        <v>2100.828998449037</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7859299492396</v>
+        <v>1952.915904866643</v>
       </c>
       <c r="F4" t="n">
-        <v>366.8959824513292</v>
+        <v>1806.025957368733</v>
       </c>
       <c r="G4" t="n">
-        <v>199.1931458260482</v>
+        <v>1638.323120743452</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>1492.10593396131</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797168</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456654</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3044.089480193523</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>2822.322864763049</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>2822.322864763049</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>2822.322864763049</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845645</v>
+        <v>2822.322864763049</v>
       </c>
       <c r="X4" t="n">
-        <v>1383.192889845645</v>
+        <v>2822.322864763049</v>
       </c>
       <c r="Y4" t="n">
-        <v>1162.400310702115</v>
+        <v>2601.530285619519</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2120.647175555802</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2884.252265792696</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="X5" t="n">
-        <v>2884.252265792696</v>
+        <v>2510.786507531614</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2120.647175555802</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1727.800028512342</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1473.115540306455</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1183.698370269494</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495403</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>758.7856865549918</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>400.5199879482413</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E8" t="n">
-        <v>126.4865620565176</v>
+        <v>378.5528805490667</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559525</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064583</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4904,31 +4904,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5050,43 +5050,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>197.0043242297712</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>197.0043242297712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="17">
@@ -5506,25 +5506,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355936</v>
@@ -5533,10 +5533,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,22 +5770,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2345.91093085731</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2126.309465880251</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6682,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,40 +6694,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876734</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>580.8993044876734</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>580.8993044876734</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>432.9862109052802</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>286.0962634073699</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>286.0962634073699</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782999</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038386</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235169</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.50678425811</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602308</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396421</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359461</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614432</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179131</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6955,10 +6955,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.345373895096259e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>18.89602209489536</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>146.8157004124962</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>147.359901516045</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>31.20374480898539</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T43" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>819955.4229552648</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>819955.4229552648</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>819955.4229552648</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>819955.4229552648</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>819955.4229552648</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>819955.4229552648</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.327398213</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982124</v>
-      </c>
-      <c r="C2" t="n">
-        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.949767504</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.949767504</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675041</v>
@@ -26340,22 +26340,22 @@
         <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.726386926748091e-10</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551172</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319421</v>
       </c>
       <c r="C4" t="n">
+        <v>92793.8428831941</v>
+      </c>
+      <c r="D4" t="n">
         <v>92793.84288319398</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-913691.2017739676</v>
+        <v>-913691.2017739662</v>
       </c>
       <c r="C6" t="n">
-        <v>415053.5439536247</v>
+        <v>415053.5439536248</v>
       </c>
       <c r="D6" t="n">
-        <v>415053.5439536252</v>
+        <v>415053.5439536244</v>
       </c>
       <c r="E6" t="n">
-        <v>164870.7707700425</v>
+        <v>165183.4120989635</v>
       </c>
       <c r="F6" t="n">
-        <v>490283.2325773974</v>
+        <v>490595.8739063184</v>
       </c>
       <c r="G6" t="n">
-        <v>490283.2325773976</v>
+        <v>490595.8739063182</v>
       </c>
       <c r="H6" t="n">
-        <v>490283.2325773973</v>
+        <v>490595.8739063184</v>
       </c>
       <c r="I6" t="n">
-        <v>490283.2325773973</v>
+        <v>490595.8739063186</v>
       </c>
       <c r="J6" t="n">
-        <v>272752.0301801199</v>
+        <v>273064.6715090412</v>
       </c>
       <c r="K6" t="n">
-        <v>490283.2325773975</v>
+        <v>490595.8739063187</v>
       </c>
       <c r="L6" t="n">
-        <v>490283.2325773977</v>
+        <v>490595.873906319</v>
       </c>
       <c r="M6" t="n">
-        <v>405228.2046418856</v>
+        <v>405540.8459708068</v>
       </c>
       <c r="N6" t="n">
-        <v>490283.2325773975</v>
+        <v>490595.8739063186</v>
       </c>
       <c r="O6" t="n">
-        <v>490283.2325773973</v>
+        <v>490595.8739063186</v>
       </c>
       <c r="P6" t="n">
-        <v>490283.2325773975</v>
+        <v>490595.8739063186</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,19 +26807,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26965,7 +26965,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973553</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58.45810500191442</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>264.8963081383008</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>13.40079581439466</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>69.34270184147306</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>180.6981307140551</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>235.2778014719906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>88.71226382522465</v>
       </c>
       <c r="V7" t="n">
-        <v>94.35543628911034</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>110.6372784394553</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>150.4543446923764</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29930,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31995,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32019,7 +32019,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32472,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663277</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295757</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
